--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -1245,7 +1245,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="3:15">
       <c r="C6" s="1">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="3:15">
       <c r="C7" s="1">
-        <v>1002</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="3:15">
       <c r="C8" s="1">
-        <v>1003</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="3:15">
       <c r="C9" s="1">
-        <v>1004</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="3:15">
       <c r="C10" s="1">
-        <v>2001</v>
+        <v>201</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="3:15">
       <c r="C11" s="1">
-        <v>2002</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="3:15">
       <c r="C12" s="1">
-        <v>2003</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>34</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="3:15">
       <c r="C13" s="1">
-        <v>2004</v>
+        <v>204</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>35</v>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -60,9 +60,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 攻击技能
-2 召唤技能
-3 被动技能</t>
+1 增加
+-1 减少
+</t>
         </r>
       </text>
     </comment>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:</t>
+          <t>效果目标:</t>
         </r>
         <r>
           <rPr>
@@ -108,13 +108,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 主动
-2 被动
+1 自己
+2 敌人
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,9 +163,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
-  <si>
-    <t>_ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+  <si>
+    <t>_Id</t>
   </si>
   <si>
     <t>技能名字</t>
@@ -177,9 +177,6 @@
     <t>优先度</t>
   </si>
   <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
     <t>施法类型</t>
   </si>
   <si>
@@ -216,10 +213,7 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CastType</t>
+    <t>TargetType</t>
   </si>
   <si>
     <t>Max</t>
@@ -261,16 +255,19 @@
     <t>中毒</t>
   </si>
   <si>
-    <t>攻击增强</t>
+    <t>生命增强</t>
+  </si>
+  <si>
+    <t>物理攻击增强</t>
+  </si>
+  <si>
+    <t>魔法攻击增强</t>
+  </si>
+  <si>
+    <t>道术攻击增强</t>
   </si>
   <si>
     <t>防御增强</t>
-  </si>
-  <si>
-    <t>生命增强</t>
-  </si>
-  <si>
-    <t>血量增强</t>
   </si>
 </sst>
 </file>
@@ -1240,29 +1237,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:O13"/>
+  <dimension ref="C3:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="6" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="11" max="13" width="7.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="10" max="12" width="7.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15">
+    <row r="3" spans="3:14">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1299,98 +1297,89 @@
       <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="3:15">
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="3" t="s">
+    <row r="5" spans="3:14">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="3:15">
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:15">
+    <row r="6" s="1" customFormat="1" spans="3:14">
       <c r="C6" s="1">
         <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1399,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1408,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -1420,18 +1409,15 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:15">
+    <row r="7" s="1" customFormat="1" spans="3:14">
       <c r="C7" s="1">
         <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1440,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -1449,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1461,39 +1447,36 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>5</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:15">
+    <row r="8" s="1" customFormat="1" spans="3:14">
       <c r="C8" s="1">
         <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="1">
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1504,218 +1487,238 @@
       <c r="N8" s="1">
         <v>3</v>
       </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:15">
+    <row r="9" s="1" customFormat="1" spans="3:14">
       <c r="C9" s="1">
         <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
       <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>120</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>6</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:15">
+    <row r="10" s="1" customFormat="1" spans="3:14">
       <c r="C10" s="1">
-        <v>201</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>199</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>60</v>
-      </c>
-      <c r="O10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:15">
+    <row r="11" s="1" customFormat="1" spans="3:14">
       <c r="C11" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:14">
+      <c r="C12" s="1">
+        <v>301</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="3:14">
+      <c r="C13" s="1">
+        <v>401</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>60</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:15">
-      <c r="C12" s="1">
-        <v>203</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="14" s="1" customFormat="1" spans="3:14">
+      <c r="C14" s="1">
+        <v>501</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1">
         <v>15</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>200</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>60</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:15">
-      <c r="C13" s="1">
-        <v>204</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>300</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>30</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 G3:G5 D3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 D3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -110,7 +110,7 @@
           <t xml:space="preserve">
 1 自己
 2 敌人
-</t>
+3 只对技能生效</t>
         </r>
       </text>
     </comment>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>_Id</t>
   </si>
@@ -177,7 +177,7 @@
     <t>优先度</t>
   </si>
   <si>
-    <t>施法类型</t>
+    <t>施法目标</t>
   </si>
   <si>
     <t>最大叠加层数</t>
@@ -243,6 +243,15 @@
     <t>string</t>
   </si>
   <si>
+    <t>多重施法</t>
+  </si>
+  <si>
+    <t>技能弹射</t>
+  </si>
+  <si>
+    <t>重击</t>
+  </si>
+  <si>
     <t>吸血</t>
   </si>
   <si>
@@ -268,6 +277,21 @@
   </si>
   <si>
     <t>防御增强</t>
+  </si>
+  <si>
+    <t>增伤强化</t>
+  </si>
+  <si>
+    <t>增伤弱化</t>
+  </si>
+  <si>
+    <t>减伤强化</t>
+  </si>
+  <si>
+    <t>减伤弱化</t>
+  </si>
+  <si>
+    <t>暴击增加</t>
   </si>
 </sst>
 </file>
@@ -1237,18 +1261,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N14"/>
+  <dimension ref="C3:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
@@ -1374,163 +1398,163 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:14">
-      <c r="C6" s="1">
-        <v>101</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="3:14">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:14">
-      <c r="C7" s="1">
-        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>50</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4</v>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:14">
-      <c r="C8" s="1">
-        <v>103</v>
+    <row r="8" spans="3:14">
+      <c r="C8" s="2">
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3</v>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:14">
       <c r="C9" s="1">
-        <v>104</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
       <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="3:14">
       <c r="C10" s="1">
-        <v>199</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="1">
@@ -1549,138 +1573,138 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="3:14">
       <c r="C11" s="1">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="3:14">
       <c r="C12" s="1">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:14">
+      <c r="C13" s="1">
+        <v>199</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="K12" s="1">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>100</v>
       </c>
-      <c r="L12" s="1">
-        <v>15</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3</v>
-      </c>
-      <c r="N12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="3:14">
-      <c r="C13" s="1">
-        <v>401</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>10</v>
-      </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="3:14">
       <c r="C14" s="1">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -1689,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1704,16 +1728,320 @@
         <v>10</v>
       </c>
       <c r="K14" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L14" s="1">
         <v>15</v>
       </c>
       <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:14">
+      <c r="C15" s="1">
+        <v>301</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
+        <v>15</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" customHeight="1" spans="3:14">
+      <c r="C16" s="1">
+        <v>401</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:14">
+      <c r="C17" s="1">
+        <v>501</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1">
+        <v>20</v>
+      </c>
+      <c r="L17" s="1">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1">
         <v>5</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N17" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:14">
+      <c r="C18" s="1">
+        <v>1201</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>50</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="2">
+        <v>1202</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>50</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3</v>
+      </c>
+      <c r="M19" s="2">
+        <v>12</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="2">
+        <v>1301</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>50</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5</v>
+      </c>
+      <c r="M20" s="2">
+        <v>13</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="2">
+        <v>1302</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>50</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3</v>
+      </c>
+      <c r="M21" s="2">
+        <v>13</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="2">
+        <v>801</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>8</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -1266,7 +1266,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>_Id</t>
   </si>
@@ -241,15 +241,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>多重施法</t>
-  </si>
-  <si>
-    <t>技能弹射</t>
-  </si>
-  <si>
-    <t>重击</t>
   </si>
   <si>
     <t>吸血</t>
@@ -1261,12 +1252,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N22"/>
+  <dimension ref="C3:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1398,163 +1389,163 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="3:14">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="6" s="1" customFormat="1" spans="3:14">
+      <c r="C6" s="1">
+        <v>101</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:14">
-      <c r="C7" s="2">
-        <v>2</v>
+    <row r="7" s="1" customFormat="1" spans="3:14">
+      <c r="C7" s="1">
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:14">
-      <c r="C8" s="2">
-        <v>3</v>
+    <row r="8" s="1" customFormat="1" spans="3:14">
+      <c r="C8" s="1">
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:14">
       <c r="C9" s="1">
-        <v>101</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="3:14">
       <c r="C10" s="1">
-        <v>102</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="1">
@@ -1573,138 +1564,138 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="3:14">
       <c r="C11" s="1">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="1">
+      <c r="K11" s="1">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="1">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>20</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
       <c r="N11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="3:14">
       <c r="C12" s="1">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>20</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
       <c r="N12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="3:14">
+      <c r="C13" s="1">
+        <v>401</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:14">
-      <c r="C13" s="1">
-        <v>199</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>100</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>30</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="3:14">
       <c r="C14" s="1">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -1713,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1728,21 +1719,21 @@
         <v>10</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L14" s="1">
         <v>15</v>
       </c>
       <c r="M14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="3:14">
       <c r="C15" s="1">
-        <v>301</v>
+        <v>1201</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>35</v>
@@ -1751,162 +1742,162 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>50</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>10</v>
-      </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M15" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15" customHeight="1" spans="3:14">
-      <c r="C16" s="1">
-        <v>401</v>
+    <row r="16" spans="3:14">
+      <c r="C16" s="2">
+        <v>1202</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
         <v>50</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>10</v>
-      </c>
-      <c r="K16" s="1">
-        <v>100</v>
-      </c>
-      <c r="L16" s="1">
-        <v>15</v>
-      </c>
-      <c r="M16" s="1">
-        <v>4</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4</v>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>12</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:14">
-      <c r="C17" s="1">
-        <v>501</v>
+    <row r="17" spans="3:14">
+      <c r="C17" s="2">
+        <v>1301</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
         <v>10</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>10</v>
-      </c>
-      <c r="K17" s="1">
-        <v>20</v>
-      </c>
-      <c r="L17" s="1">
-        <v>15</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>50</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
         <v>5</v>
       </c>
-      <c r="N17" s="1">
-        <v>5</v>
+      <c r="M17" s="2">
+        <v>13</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:14">
-      <c r="C18" s="1">
-        <v>1201</v>
+    <row r="18" spans="3:14">
+      <c r="C18" s="2">
+        <v>1302</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="2">
         <v>10</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
         <v>50</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>5</v>
-      </c>
-      <c r="M18" s="1">
-        <v>12</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>13</v>
+      </c>
+      <c r="N18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:14">
       <c r="C19" s="2">
-        <v>1202</v>
+        <v>801</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1915,132 +1906,18 @@
         <v>1</v>
       </c>
       <c r="J19" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="2">
-        <v>1301</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>50</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>5</v>
-      </c>
-      <c r="M20" s="2">
-        <v>13</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="C21" s="2">
-        <v>1302</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>50</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>3</v>
-      </c>
-      <c r="M21" s="2">
-        <v>13</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="2">
-        <v>801</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>5</v>
-      </c>
-      <c r="M22" s="2">
-        <v>8</v>
-      </c>
-      <c r="N22" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -46,22 +46,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 增加
--1 减少
+          <t xml:space="preserve">-1 减少属性
+1 增加属性
+2 停止回合
 </t>
         </r>
       </text>
@@ -114,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,29 +123,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-攻击力系数（百分比），额外附加固定伤害值</t>
+-6： 根据技能本身得出来源
+其他：根据属性类型，计算得值</t>
         </r>
       </text>
     </comment>
@@ -163,7 +133,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>_Id</t>
   </si>
@@ -180,27 +153,15 @@
     <t>施法目标</t>
   </si>
   <si>
-    <t>最大叠加层数</t>
-  </si>
-  <si>
-    <t>效果等级</t>
-  </si>
-  <si>
-    <t>伤害比例</t>
-  </si>
-  <si>
-    <t>固定伤害</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
     <t>目标属性</t>
   </si>
   <si>
     <t>来源属性</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -216,58 +177,82 @@
     <t>TargetType</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>TargetAttr</t>
   </si>
   <si>
     <t>SourceAttr</t>
   </si>
   <si>
+    <t>Des</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>物理攻击增强</t>
+  </si>
+  <si>
+    <t>护盾技能-物理攻击增强</t>
+  </si>
+  <si>
+    <t>魔法攻击增强</t>
+  </si>
+  <si>
+    <t>护盾技能-魔法攻击增强</t>
+  </si>
+  <si>
+    <t>道术攻击增强</t>
+  </si>
+  <si>
+    <t>护盾技能-道术攻击增强</t>
+  </si>
+  <si>
+    <t>防御增强</t>
+  </si>
+  <si>
+    <t>护盾技能-防御增强</t>
+  </si>
+  <si>
     <t>吸血</t>
   </si>
   <si>
+    <t>技能伤害-吸血</t>
+  </si>
+  <si>
     <t>回复</t>
   </si>
   <si>
+    <t>道术-回复</t>
+  </si>
+  <si>
     <t>灼烧</t>
   </si>
   <si>
+    <t>魔法-灼烧</t>
+  </si>
+  <si>
     <t>中毒</t>
   </si>
   <si>
+    <t>道术-中毒</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>控制-冰冻</t>
+  </si>
+  <si>
+    <t>晕眩</t>
+  </si>
+  <si>
+    <t>控制-晕眩</t>
+  </si>
+  <si>
     <t>生命增强</t>
-  </si>
-  <si>
-    <t>物理攻击增强</t>
-  </si>
-  <si>
-    <t>魔法攻击增强</t>
-  </si>
-  <si>
-    <t>道术攻击增强</t>
-  </si>
-  <si>
-    <t>防御增强</t>
   </si>
   <si>
     <t>增伤强化</t>
@@ -1252,301 +1237,220 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N19"/>
+  <dimension ref="C2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="10" max="12" width="7.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14">
+    <row r="2" spans="10:10">
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:10">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I6" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:10">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I7" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:10">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14">
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14">
-      <c r="C5" s="3" t="s">
+      <c r="I8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:10">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:14">
-      <c r="C6" s="1">
-        <v>101</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:14">
-      <c r="C7" s="1">
-        <v>102</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>50</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:14">
-      <c r="C8" s="1">
-        <v>103</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:14">
-      <c r="C9" s="1">
-        <v>104</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:14">
+        <v>-6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:10">
       <c r="C10" s="1">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1558,299 +1462,203 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>100</v>
-      </c>
-      <c r="K10" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:10">
+      <c r="C11" s="1">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="1">
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="1">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:10">
+      <c r="C12" s="1">
+        <v>103</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:14">
-      <c r="C11" s="1">
-        <v>201</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1">
-        <v>100</v>
-      </c>
-      <c r="L11" s="1">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:14">
-      <c r="C12" s="1">
-        <v>301</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>50</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
-        <v>100</v>
-      </c>
-      <c r="L12" s="1">
-        <v>15</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3</v>
-      </c>
-      <c r="N12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="3:14">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:10">
       <c r="C13" s="1">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:10">
+      <c r="C14" s="1">
+        <v>105</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:10">
+      <c r="C15" s="1">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:10">
+      <c r="C16" s="1">
+        <v>199</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>10</v>
       </c>
-      <c r="K13" s="1">
-        <v>100</v>
-      </c>
-      <c r="L13" s="1">
-        <v>15</v>
-      </c>
-      <c r="M13" s="1">
-        <v>4</v>
-      </c>
-      <c r="N13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:14">
-      <c r="C14" s="1">
-        <v>501</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:10">
+      <c r="C17" s="1">
+        <v>1201</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>10</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>10</v>
-      </c>
-      <c r="K14" s="1">
-        <v>20</v>
-      </c>
-      <c r="L14" s="1">
-        <v>15</v>
-      </c>
-      <c r="M14" s="1">
-        <v>5</v>
-      </c>
-      <c r="N14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:14">
-      <c r="C15" s="1">
-        <v>1201</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>50</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1">
-        <v>12</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14">
-      <c r="C16" s="2">
+      <c r="J17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="2">
         <v>1202</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>50</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>3</v>
-      </c>
-      <c r="M16" s="2">
-        <v>12</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14">
-      <c r="C17" s="2">
-        <v>1301</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>50</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>5</v>
-      </c>
-      <c r="M17" s="2">
-        <v>13</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="C18" s="2">
-        <v>1302</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2">
         <v>-1</v>
@@ -1862,33 +1670,21 @@
         <v>2</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>50</v>
-      </c>
-      <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="2">
-        <v>3</v>
-      </c>
-      <c r="M18" s="2">
-        <v>13</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
+      <c r="J18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" s="2">
-        <v>801</v>
+        <v>1301</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1897,33 +1693,73 @@
         <v>10</v>
       </c>
       <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="2">
+        <v>1302</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>13</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="2">
+        <v>801</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
         <v>3</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="H21" s="2">
+        <v>8</v>
+      </c>
+      <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="2">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2">
-        <v>8</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
+      <c r="J21" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 D3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 J3:J5 D3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -302,34 +302,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -346,6 +318,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -355,41 +366,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,7 +419,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,49 +472,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,121 +610,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,21 +663,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,6 +695,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,148 +766,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -921,52 +921,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1242,7 +1242,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -159,6 +159,12 @@
     <t>来源属性</t>
   </si>
   <si>
+    <t>系数百分比增益</t>
+  </si>
+  <si>
+    <t>固定值增益</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -183,6 +189,12 @@
     <t>SourceAttr</t>
   </si>
   <si>
+    <t>PercentGain</t>
+  </si>
+  <si>
+    <t>ConstGain</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -192,6 +204,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>物理攻击增强</t>
   </si>
   <si>
@@ -216,6 +231,9 @@
     <t>护盾技能-防御增强</t>
   </si>
   <si>
+    <t>生命增强</t>
+  </si>
+  <si>
     <t>吸血</t>
   </si>
   <si>
@@ -250,9 +268,6 @@
   </si>
   <si>
     <t>控制-晕眩</t>
-  </si>
-  <si>
-    <t>生命增强</t>
   </si>
   <si>
     <t>增伤强化</t>
@@ -1237,12 +1252,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J21"/>
+  <dimension ref="C2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1252,18 +1267,20 @@
     <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.25" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:10">
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10">
+    <row r="2" spans="12:12">
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1288,65 +1305,83 @@
       <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:10">
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:12">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1358,21 +1393,27 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
-        <v>-6</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
+      <c r="J6" s="1">
+        <v>100</v>
+      </c>
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:12">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1384,21 +1425,27 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
+        <v>1003</v>
+      </c>
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="1">
-        <v>-6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:10">
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:12">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1410,21 +1457,27 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
+        <v>1004</v>
+      </c>
+      <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="I8" s="1">
-        <v>-6</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:10">
+      <c r="J8" s="1">
+        <v>100</v>
+      </c>
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:12">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1436,21 +1489,27 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
+        <v>1005</v>
+      </c>
+      <c r="I9" s="1">
         <v>5</v>
       </c>
-      <c r="I9" s="1">
-        <v>-6</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:10">
+      <c r="J9" s="1">
+        <v>100</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:12">
       <c r="C10" s="1">
-        <v>101</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1462,82 +1521,70 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="I10" s="1">
-        <v>-6</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:10">
-      <c r="C11" s="1">
-        <v>102</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:12">
+      <c r="D11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:12">
       <c r="C12" s="1">
-        <v>103</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:10">
+        <v>-6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:12">
       <c r="C13" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1545,22 +1592,28 @@
       <c r="I13" s="1">
         <v>4</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:10">
+      <c r="J13" s="1">
+        <v>100</v>
+      </c>
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:12">
       <c r="C14" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -1569,24 +1622,30 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:12">
       <c r="C15" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -1595,122 +1654,124 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:10">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:12">
       <c r="C16" s="1">
-        <v>199</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>105</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:12">
+      <c r="C17" s="1">
+        <v>106</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="4:12">
+      <c r="D18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:12">
+      <c r="C19" s="1">
+        <v>1201</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:10">
-      <c r="C17" s="1">
-        <v>1201</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
         <v>12</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="2">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="2">
         <v>1202</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>12</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="2">
-        <v>1301</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>13</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="2">
-        <v>1302</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2">
         <v>-1</v>
@@ -1722,21 +1783,27 @@
         <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
       <c r="C21" s="2">
-        <v>801</v>
+        <v>1301</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1745,21 +1812,91 @@
         <v>10</v>
       </c>
       <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="2">
+        <v>1302</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="2">
+        <v>801</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H23" s="2">
         <v>8</v>
       </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>44</v>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 J3:J5 D3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 L3:L5 D3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>生命增强</t>
+  </si>
+  <si>
+    <t>生命上限回血增强</t>
   </si>
   <si>
     <t>吸血</t>
@@ -288,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -317,6 +320,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -333,6 +364,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -374,21 +413,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -434,33 +458,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -487,13 +490,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,24 +556,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -547,18 +604,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,36 +616,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -619,24 +640,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -650,12 +659,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +681,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,21 +728,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,148 +784,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -936,52 +939,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1252,12 +1255,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L23"/>
+  <dimension ref="C2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1534,48 +1537,46 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="4:12">
-      <c r="D11" s="2"/>
+    <row r="11" s="1" customFormat="1" spans="3:12">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:12">
-      <c r="C12" s="1">
-        <v>101</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-6</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="12" s="1" customFormat="1" spans="4:12">
+      <c r="D12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="3:12">
       <c r="C13" s="1">
-        <v>102</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1590,56 +1591,56 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="J13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="3:12">
       <c r="C14" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>10</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="3:12">
       <c r="C15" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1">
         <v>-1</v>
@@ -1654,30 +1655,30 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="3:12">
       <c r="C16" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -1686,24 +1687,24 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="3:12">
       <c r="C17" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -1727,65 +1728,65 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:12">
+      <c r="C18" s="1">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="4:12">
-      <c r="D18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="3:12">
-      <c r="C19" s="1">
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="4:12">
+      <c r="D19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="3:12">
+      <c r="C20" s="1">
         <v>1201</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="2">
-        <v>1202</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
         <v>10</v>
       </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <v>12</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1">
@@ -1800,22 +1801,22 @@
     </row>
     <row r="21" spans="3:12">
       <c r="C21" s="2">
-        <v>1301</v>
+        <v>1202</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F21" s="2">
         <v>10</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -1832,19 +1833,19 @@
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="2">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
         <v>10</v>
       </c>
       <c r="G22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
         <v>13</v>
@@ -1864,22 +1865,22 @@
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="2">
-        <v>801</v>
+        <v>1302</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="2">
         <v>10</v>
       </c>
       <c r="G23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -1892,6 +1893,38 @@
       </c>
       <c r="L23" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="2">
+        <v>801</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">-1 减少属性
+          <t>-1 减少属性
 1 增加属性
 2 停止回合
-</t>
+3 免疫控制</t>
         </r>
       </text>
     </comment>
@@ -101,7 +101,8 @@
           <t xml:space="preserve">
 1 自己
 2 敌人
-3 只对技能生效</t>
+3 只对技能生效
+4 对召唤物生效</t>
         </r>
       </text>
     </comment>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -235,6 +236,21 @@
   </si>
   <si>
     <t>生命上限回血增强</t>
+  </si>
+  <si>
+    <t>免疫控制</t>
+  </si>
+  <si>
+    <t>召唤伤害加成</t>
+  </si>
+  <si>
+    <t>物理伤害加成</t>
+  </si>
+  <si>
+    <t>魔法伤害加成</t>
+  </si>
+  <si>
+    <t>道术伤害加成</t>
   </si>
   <si>
     <t>吸血</t>
@@ -291,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -320,34 +336,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -364,6 +352,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -373,41 +400,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,12 +453,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -490,49 +506,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,121 +644,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,21 +697,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -728,6 +729,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,148 +800,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -939,52 +955,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1255,12 +1271,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L24"/>
+  <dimension ref="C2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1567,16 +1583,42 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="4:12">
-      <c r="D12" s="2"/>
+    <row r="12" s="1" customFormat="1" spans="3:12">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>200</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="3:12">
       <c r="C13" s="1">
-        <v>101</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1585,13 +1627,13 @@
         <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="I13" s="1">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1599,13 +1641,11 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="3:12">
       <c r="C14" s="1">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
@@ -1620,42 +1660,40 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="3:12">
       <c r="C15" s="1">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>10</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="I15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1663,131 +1701,127 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="3:12">
       <c r="C16" s="1">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>10</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="I16" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="3:12">
-      <c r="C17" s="1">
-        <v>105</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>100</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="4:12">
+      <c r="D17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="3:12">
       <c r="C18" s="1">
-        <v>106</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:12">
+      <c r="C19" s="1">
+        <v>102</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="4:12">
-      <c r="D19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="K19" s="1">
+        <v>100</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="3:12">
       <c r="C20" s="1">
-        <v>1201</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F20" s="1">
         <v>10</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -1796,61 +1830,61 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:12">
+      <c r="C21" s="1">
+        <v>104</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>100</v>
+      </c>
+      <c r="K21" s="1">
+        <v>100</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
-      <c r="C21" s="2">
-        <v>1202</v>
-      </c>
-      <c r="D21" s="2" t="s">
+    <row r="22" s="1" customFormat="1" spans="3:12">
+      <c r="C22" s="1">
+        <v>105</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="2">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="2">
-        <v>1301</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22" s="1">
@@ -1863,68 +1897,200 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="3:12">
-      <c r="C23" s="2">
-        <v>1302</v>
+    <row r="23" s="1" customFormat="1" spans="3:12">
+      <c r="C23" s="1">
+        <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="4:12">
+      <c r="D24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:12">
+      <c r="C25" s="1">
+        <v>1201</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="2">
+        <v>1202</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2">
         <v>-1</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F26" s="2">
         <v>10</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G26" s="2">
         <v>2</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H26" s="2">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="2">
+        <v>1301</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
         <v>13</v>
       </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="C24" s="2">
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="2">
+        <v>1302</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="2">
         <v>801</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="D29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
         <v>10</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G29" s="2">
         <v>3</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H29" s="2">
         <v>8</v>
       </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>50</v>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -166,6 +166,9 @@
     <t>固定值增益</t>
   </si>
   <si>
+    <t>等级增益</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>ConstGain</t>
+  </si>
+  <si>
+    <t>LevelGain</t>
   </si>
   <si>
     <t>Des</t>
@@ -1271,12 +1277,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L29"/>
+  <dimension ref="C2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1289,17 +1295,17 @@
     <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="11" max="12" width="14.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:12">
-      <c r="L2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12">
+    <row r="2" spans="13:13">
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1330,77 +1336,86 @@
       <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="3:12">
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:12">
+      <c r="M5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:13">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1423,16 +1438,19 @@
       <c r="K6" s="1">
         <v>100</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:12">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:13">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1455,16 +1473,19 @@
       <c r="K7" s="1">
         <v>100</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:12">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:13">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1487,16 +1508,19 @@
       <c r="K8" s="1">
         <v>100</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:12">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:13">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1519,16 +1543,19 @@
       <c r="K9" s="1">
         <v>100</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:12">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:13">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1551,14 +1578,17 @@
       <c r="K10" s="1">
         <v>100</v>
       </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:12">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:13">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1581,14 +1611,17 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:12">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:13">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1611,14 +1644,17 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:12">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:13">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1641,14 +1677,17 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:12">
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:13">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1671,14 +1710,17 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:12">
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:13">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1701,14 +1743,17 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:12">
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:13">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1731,18 +1776,21 @@
       <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="4:12">
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="4:13">
       <c r="D17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:12">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:13">
       <c r="C18" s="1">
         <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1765,16 +1813,19 @@
       <c r="K18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="3:12">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:13">
       <c r="C19" s="1">
         <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1797,16 +1848,19 @@
       <c r="K19" s="1">
         <v>100</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="3:12">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="3:13">
       <c r="C20" s="1">
         <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1">
         <v>-1</v>
@@ -1829,16 +1883,19 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="3:12">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:13">
       <c r="C21" s="1">
         <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1">
         <v>-1</v>
@@ -1861,16 +1918,19 @@
       <c r="K21" s="1">
         <v>100</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="3:12">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:13">
       <c r="C22" s="1">
         <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1893,16 +1953,19 @@
       <c r="K22" s="1">
         <v>0</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="3:12">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="3:13">
       <c r="C23" s="1">
         <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1925,20 +1988,23 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="4:12">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="4:13">
       <c r="D24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="3:12">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:13">
       <c r="C25" s="1">
         <v>1201</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1961,16 +2027,19 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
       <c r="C26" s="2">
         <v>1202</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2">
         <v>-1</v>
@@ -1993,16 +2062,19 @@
       <c r="K26" s="1">
         <v>0</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12">
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
       <c r="C27" s="2">
         <v>1301</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2025,16 +2097,19 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
       <c r="C28" s="2">
         <v>1302</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2">
         <v>-1</v>
@@ -2057,16 +2132,19 @@
       <c r="K28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12">
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
       <c r="C29" s="2">
         <v>801</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -2089,13 +2167,16 @@
       <c r="K29" s="1">
         <v>0</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>55</v>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 L3:L5 D3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 M3:M5 D3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>生命增强</t>
+  </si>
+  <si>
+    <t>护盾技能-防御生命</t>
   </si>
   <si>
     <t>生命上限回血增强</t>
@@ -1282,7 +1285,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1544,7 +1547,7 @@
         <v>100</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>33</v>
@@ -1579,16 +1582,18 @@
         <v>100</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="3:13">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1621,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1654,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1687,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1720,7 +1725,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1753,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1790,7 +1795,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1817,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="3:13">
@@ -1825,7 +1830,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1852,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="3:13">
@@ -1860,7 +1865,7 @@
         <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1">
         <v>-1</v>
@@ -1887,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="3:13">
@@ -1895,7 +1900,7 @@
         <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1">
         <v>-1</v>
@@ -1922,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="3:13">
@@ -1930,7 +1935,7 @@
         <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1957,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="3:13">
@@ -1965,7 +1970,7 @@
         <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1992,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="4:13">
@@ -2004,7 +2009,7 @@
         <v>1201</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2031,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:13">
@@ -2039,7 +2044,7 @@
         <v>1202</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2">
         <v>-1</v>
@@ -2066,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:13">
@@ -2074,7 +2079,7 @@
         <v>1301</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2101,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="3:13">
@@ -2109,7 +2114,7 @@
         <v>1302</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2">
         <v>-1</v>
@@ -2136,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="3:13">
@@ -2144,7 +2149,7 @@
         <v>801</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -2171,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 立即运行
+1 延迟运行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -154,6 +177,9 @@
     <t>施法目标</t>
   </si>
   <si>
+    <t>运行类型</t>
+  </si>
+  <si>
     <t>目标属性</t>
   </si>
   <si>
@@ -185,6 +211,9 @@
   </si>
   <si>
     <t>TargetType</t>
+  </si>
+  <si>
+    <t>RunType</t>
   </si>
   <si>
     <t>TargetAttr</t>
@@ -1280,12 +1309,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:M29"/>
+  <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1295,20 +1324,21 @@
     <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="14.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="14.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.25" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:13">
-      <c r="M2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:13">
+    <row r="2" spans="14:14">
+      <c r="N2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1342,83 +1372,92 @@
       <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="3:13">
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13">
+        <v>23</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:13">
+        <v>25</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:14">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1430,30 +1469,33 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>1002</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>100</v>
       </c>
       <c r="K6" s="1">
         <v>100</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:14">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1465,30 +1507,33 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>1003</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>100</v>
       </c>
       <c r="K7" s="1">
         <v>100</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:14">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1500,30 +1545,33 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>1004</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>4</v>
-      </c>
-      <c r="J8" s="1">
-        <v>100</v>
       </c>
       <c r="K8" s="1">
         <v>100</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:14">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1535,30 +1583,33 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>1005</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>100</v>
       </c>
       <c r="K9" s="1">
         <v>100</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:14">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1570,30 +1621,33 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>1001</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
       <c r="J10" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
         <v>100</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:14">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1605,11 +1659,11 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>23</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
@@ -1619,14 +1673,17 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:13">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:14">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1652,14 +1709,17 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:13">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:14">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1671,11 +1731,11 @@
         <v>4</v>
       </c>
       <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>305</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
@@ -1683,16 +1743,19 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:14">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1704,11 +1767,11 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>302</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
@@ -1716,16 +1779,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:14">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1737,11 +1803,11 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>303</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
@@ -1749,16 +1815,19 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:14">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1770,11 +1839,11 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>304</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
@@ -1782,20 +1851,23 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="4:13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="4:14">
       <c r="D17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:13">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:14">
       <c r="C18" s="1">
         <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1810,27 +1882,30 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <v>-6</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="3:13">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:14">
       <c r="C19" s="1">
         <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1842,30 +1917,33 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
         <v>4</v>
-      </c>
-      <c r="J19" s="1">
-        <v>100</v>
       </c>
       <c r="K19" s="1">
         <v>100</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="3:14">
       <c r="C20" s="1">
         <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1">
         <v>-1</v>
@@ -1877,30 +1955,33 @@
         <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>3</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="3:13">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:14">
       <c r="C21" s="1">
         <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1">
         <v>-1</v>
@@ -1912,30 +1993,33 @@
         <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
         <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>100</v>
       </c>
       <c r="K21" s="1">
         <v>100</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:14">
       <c r="C22" s="1">
         <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1947,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1961,16 +2045,19 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="3:13">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="3:14">
       <c r="C23" s="1">
         <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1982,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1996,20 +2083,23 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="4:13">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="4:14">
       <c r="D24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="3:13">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:14">
       <c r="C25" s="1">
         <v>1201</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2021,11 +2111,11 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>12</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
@@ -2035,16 +2125,19 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13">
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
       <c r="C26" s="2">
         <v>1202</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2">
         <v>-1</v>
@@ -2055,13 +2148,13 @@
       <c r="G26" s="2">
         <v>2</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
         <v>12</v>
       </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="1">
@@ -2070,16 +2163,19 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13">
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
       <c r="C27" s="2">
         <v>1301</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2090,13 +2186,13 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
         <v>13</v>
       </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="1">
@@ -2105,16 +2201,19 @@
       <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13">
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
       <c r="C28" s="2">
         <v>1302</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2">
         <v>-1</v>
@@ -2125,13 +2224,13 @@
       <c r="G28" s="2">
         <v>2</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
         <v>13</v>
       </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="1">
@@ -2140,16 +2239,19 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
       <c r="C29" s="2">
         <v>801</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -2160,13 +2262,13 @@
       <c r="G29" s="2">
         <v>3</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
         <v>8</v>
       </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="1">
@@ -2175,13 +2277,16 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>58</v>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 M3:M5 D3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 N3:N5 D3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>控制-晕眩</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>技能伤害-流血</t>
   </si>
   <si>
     <t>增伤强化</t>
@@ -518,12 +524,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1309,12 +1315,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:N29"/>
+  <dimension ref="C2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2090,71 +2096,71 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="4:14">
-      <c r="D24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="3:14">
-      <c r="C25" s="1">
+    <row r="24" s="1" customFormat="1" spans="3:14">
+      <c r="C24" s="1">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-6</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="4:14">
+      <c r="D25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="3:14">
+      <c r="C26" s="1">
         <v>1201</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>12</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="2">
-        <v>1202</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>12</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>0</v>
       </c>
       <c r="K26" s="1">
@@ -2167,30 +2173,30 @@
         <v>0</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="2">
-        <v>1301</v>
+        <v>1202</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F27" s="2">
         <v>10</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2205,24 +2211,24 @@
         <v>0</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="2">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>10</v>
       </c>
       <c r="G28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2243,45 +2249,83 @@
         <v>0</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="2">
-        <v>801</v>
+        <v>1302</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="2">
         <v>10</v>
       </c>
       <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>13</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="2">
+        <v>801</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
         <v>3</v>
       </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
         <v>8</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>60</v>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -276,19 +276,37 @@
     <t>生命上限回血增强</t>
   </si>
   <si>
+    <t>增加{0}回血，持续{1}秒,可叠加{2}层</t>
+  </si>
+  <si>
     <t>免疫控制</t>
   </si>
   <si>
+    <t>免疫控制，持续{1}秒</t>
+  </si>
+  <si>
     <t>召唤伤害加成</t>
   </si>
   <si>
+    <t>增加{0}%召唤物伤害可叠3层</t>
+  </si>
+  <si>
     <t>物理伤害加成</t>
   </si>
   <si>
+    <t>增加{0}%物理伤害可叠3层</t>
+  </si>
+  <si>
     <t>魔法伤害加成</t>
   </si>
   <si>
+    <t>增加{0}%魔法伤害可叠3层</t>
+  </si>
+  <si>
     <t>道术伤害加成</t>
+  </si>
+  <si>
+    <t>增加{0}%道术伤害可叠3层</t>
   </si>
   <si>
     <t>吸血</t>
@@ -524,12 +542,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1315,12 +1333,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:N30"/>
+  <dimension ref="C2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1335,12 +1353,13 @@
     <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.875" style="2" customWidth="1"/>
     <col min="12" max="13" width="14.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="29.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.25" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:14">
-      <c r="N2" s="2" t="s">
+    <row r="2" spans="15:15">
+      <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +1477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:14">
+    <row r="6" s="1" customFormat="1" spans="3:15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1492,11 +1511,11 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:14">
+    <row r="7" s="1" customFormat="1" spans="3:15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1530,11 +1549,11 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:14">
+    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:15">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1568,11 +1587,11 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:14">
+    <row r="9" s="1" customFormat="1" spans="3:15">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1606,11 +1625,11 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:14">
+    <row r="10" s="1" customFormat="1" spans="3:15">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1644,11 +1663,11 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:14">
+    <row r="11" s="1" customFormat="1" spans="3:15">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1682,14 +1701,16 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:14">
+      <c r="O11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:15">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1718,14 +1739,16 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:14">
+      <c r="O12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:15">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1754,14 +1777,17 @@
       <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="3:14">
+      <c r="N13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:15">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1790,14 +1816,17 @@
       <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="3:14">
+      <c r="N14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:15">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1826,14 +1855,17 @@
       <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:14">
+      <c r="N15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:15">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1862,18 +1894,21 @@
       <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="4:14">
+      <c r="N16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="4:15">
       <c r="D17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:14">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:15">
       <c r="C18" s="1">
         <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1902,16 +1937,16 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="3:14">
+      <c r="O18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:15">
       <c r="C19" s="1">
         <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1940,16 +1975,16 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="3:14">
+      <c r="O19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="3:15">
       <c r="C20" s="1">
         <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1">
         <v>-1</v>
@@ -1978,16 +2013,16 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="3:14">
+      <c r="O20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:15">
       <c r="C21" s="1">
         <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1">
         <v>-1</v>
@@ -2016,16 +2051,16 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="3:14">
+      <c r="O21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:15">
       <c r="C22" s="1">
         <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -2054,16 +2089,16 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="3:14">
+      <c r="O22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="3:15">
       <c r="C23" s="1">
         <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -2092,16 +2127,16 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="3:14">
+      <c r="O23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:15">
       <c r="C24" s="1">
         <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1">
         <v>-1</v>
@@ -2130,20 +2165,20 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="4:14">
+      <c r="O24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="4:15">
       <c r="D25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="3:14">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="3:15">
       <c r="C26" s="1">
         <v>1201</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2172,16 +2207,16 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14">
+      <c r="O26" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
       <c r="C27" s="2">
         <v>1202</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2">
         <v>-1</v>
@@ -2210,16 +2245,16 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14">
+      <c r="O27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
       <c r="C28" s="2">
         <v>1301</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -2248,16 +2283,16 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14">
+      <c r="O28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
       <c r="C29" s="2">
         <v>1302</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2">
         <v>-1</v>
@@ -2286,16 +2321,16 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14">
+      <c r="O29" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
       <c r="C30" s="2">
         <v>801</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2324,8 +2359,8 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>62</v>
+      <c r="O30" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -75,9 +75,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 攻击技能
-2 召唤技能
-3 被动技能</t>
+-1 先触发特效，再计算技能
+1 先计算技能，后触发特效</t>
         </r>
       </text>
     </comment>
@@ -157,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -349,6 +348,12 @@
   </si>
   <si>
     <t>技能伤害-流血</t>
+  </si>
+  <si>
+    <t>易伤</t>
+  </si>
+  <si>
+    <t>承担额外百分比伤害</t>
   </si>
   <si>
     <t>增伤强化</t>
@@ -1333,12 +1338,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:O30"/>
+  <dimension ref="C2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1488,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1526,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1564,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1602,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1640,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1678,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1716,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1754,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="1">
         <v>4</v>
@@ -1793,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1832,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1871,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1914,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1952,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1990,7 +1995,7 @@
         <v>-1</v>
       </c>
       <c r="F20" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -2028,7 +2033,7 @@
         <v>-1</v>
       </c>
       <c r="F21" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>2</v>
@@ -2066,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -2104,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -2142,7 +2147,7 @@
         <v>-1</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -2169,198 +2174,244 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="4:15">
-      <c r="D25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="3:15">
-      <c r="C26" s="1">
+    <row r="25" s="1" customFormat="1" spans="3:15">
+      <c r="C25" s="1">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>401</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="4:15">
+      <c r="D26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="4:15">
+      <c r="D27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="4:15">
+      <c r="D28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="3:15">
+      <c r="C29" s="1">
         <v>1201</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
         <v>12</v>
       </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15">
-      <c r="C27" s="2">
-        <v>1202</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>12</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15">
-      <c r="C28" s="2">
-        <v>1301</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>13</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15">
-      <c r="C29" s="2">
-        <v>1302</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>13</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="3:15">
       <c r="C30" s="2">
+        <v>1202</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>12</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
+      <c r="C31" s="2">
+        <v>1301</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>13</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15">
+      <c r="C32" s="2">
+        <v>1302</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>13</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33" s="2">
         <v>801</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="D33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="2">
         <v>3</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
         <v>8</v>
       </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>68</v>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -275,42 +275,48 @@
     <t>生命上限回血增强</t>
   </si>
   <si>
-    <t>增加{0}回血，持续{1}秒,可叠加{2}层</t>
+    <t>增加{0}%回血可叠{1}层</t>
+  </si>
+  <si>
+    <t>增加{0}回血，持续{2}秒,可叠加{1}层</t>
   </si>
   <si>
     <t>免疫控制</t>
   </si>
   <si>
-    <t>免疫控制，持续{1}秒</t>
+    <t>免疫控制，持续{2}秒</t>
   </si>
   <si>
     <t>召唤伤害加成</t>
   </si>
   <si>
-    <t>增加{0}%召唤物伤害可叠3层</t>
+    <t>增加{0}%召唤物伤害可叠{1}层</t>
   </si>
   <si>
     <t>物理伤害加成</t>
   </si>
   <si>
-    <t>增加{0}%物理伤害可叠3层</t>
+    <t>增加{0}%物理伤害可叠{1}层</t>
   </si>
   <si>
     <t>魔法伤害加成</t>
   </si>
   <si>
-    <t>增加{0}%魔法伤害可叠3层</t>
+    <t>增加{0}%魔法伤害可叠{1}层</t>
   </si>
   <si>
     <t>道术伤害加成</t>
   </si>
   <si>
-    <t>增加{0}%道术伤害可叠3层</t>
+    <t>增加{0}%道术伤害可叠{1}层</t>
   </si>
   <si>
     <t>吸血</t>
   </si>
   <si>
+    <t>吸血{0}%</t>
+  </si>
+  <si>
     <t>技能伤害-吸血</t>
   </si>
   <si>
@@ -323,6 +329,9 @@
     <t>灼烧</t>
   </si>
   <si>
+    <t>灼烧{0}%伤害{2}秒</t>
+  </si>
+  <si>
     <t>魔法-灼烧</t>
   </si>
   <si>
@@ -333,6 +342,9 @@
   </si>
   <si>
     <t>冰冻</t>
+  </si>
+  <si>
+    <t>冰冻{2}秒</t>
   </si>
   <si>
     <t>控制-冰冻</t>
@@ -1343,7 +1355,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1706,8 +1718,11 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="O11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="3:15">
@@ -1715,7 +1730,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1745,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="3:15">
@@ -1753,7 +1768,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1783,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O13" s="2"/>
     </row>
@@ -1792,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1822,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1831,7 +1846,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1861,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -1870,7 +1885,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1900,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -1913,7 +1928,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1942,8 +1957,11 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
+      <c r="N18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="O18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="3:15">
@@ -1951,7 +1969,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1981,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="3:15">
@@ -1989,7 +2007,7 @@
         <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1">
         <v>-1</v>
@@ -2018,8 +2036,11 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
+      <c r="N20" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="O20" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="3:15">
@@ -2027,7 +2048,7 @@
         <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1">
         <v>-1</v>
@@ -2057,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="3:15">
@@ -2065,7 +2086,7 @@
         <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -2094,8 +2115,11 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
+      <c r="N22" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="O22" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="3:15">
@@ -2103,7 +2127,7 @@
         <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -2133,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="3:15">
@@ -2141,7 +2165,7 @@
         <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1">
         <v>-1</v>
@@ -2171,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="3:15">
@@ -2179,7 +2203,7 @@
         <v>108</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2209,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="4:15">
@@ -2229,7 +2253,7 @@
         <v>1201</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2259,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:15">
@@ -2267,7 +2291,7 @@
         <v>1202</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2">
         <v>-1</v>
@@ -2297,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="3:15">
@@ -2305,7 +2329,7 @@
         <v>1301</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2335,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="3:15">
@@ -2343,7 +2367,7 @@
         <v>1302</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2">
         <v>-1</v>
@@ -2373,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="3:15">
@@ -2381,7 +2405,7 @@
         <v>801</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2411,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0">
@@ -50,14 +51,63 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>-1 减少属性
-1 增加属性
-2 停止回合
-3 免疫控制</t>
+          <t>1 增属性减属性
+2 伤害回复
+3 停止回合
+4 霸体免疫</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 增加
+0 不变
+-1 减少</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-2： 百分比
+-1：技能伤害
+0：当前生命
+&gt;=1 对应属性</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,35 +178,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
--6： 根据技能本身得出来源
-其他：根据属性类型，计算得值</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -170,6 +197,12 @@
     <t>类型</t>
   </si>
   <si>
+    <t>计算类型</t>
+  </si>
+  <si>
+    <t>来源属性</t>
+  </si>
+  <si>
     <t>优先度</t>
   </si>
   <si>
@@ -182,13 +215,7 @@
     <t>目标属性</t>
   </si>
   <si>
-    <t>来源属性</t>
-  </si>
-  <si>
-    <t>系数百分比增益</t>
-  </si>
-  <si>
-    <t>固定值增益</t>
+    <t>精通技能增益</t>
   </si>
   <si>
     <t>等级增益</t>
@@ -206,6 +233,12 @@
     <t>Type</t>
   </si>
   <si>
+    <t>CalType</t>
+  </si>
+  <si>
+    <t>SourceAttr</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -218,16 +251,10 @@
     <t>TargetAttr</t>
   </si>
   <si>
-    <t>SourceAttr</t>
-  </si>
-  <si>
-    <t>PercentGain</t>
-  </si>
-  <si>
-    <t>ConstGain</t>
-  </si>
-  <si>
-    <t>LevelGain</t>
+    <t>ExpertRise</t>
+  </si>
+  <si>
+    <t>LevelRise</t>
   </si>
   <si>
     <t>Des</t>
@@ -281,106 +308,139 @@
     <t>增加{0}回血，持续{2}秒,可叠加{1}层</t>
   </si>
   <si>
+    <t>召唤伤害加成</t>
+  </si>
+  <si>
+    <t>增加{0}%召唤物伤害可叠{1}层</t>
+  </si>
+  <si>
+    <t>物理伤害加成</t>
+  </si>
+  <si>
+    <t>增加{0}%物理伤害可叠{1}层</t>
+  </si>
+  <si>
+    <t>魔法伤害加成</t>
+  </si>
+  <si>
+    <t>增加{0}%魔法伤害可叠{1}层</t>
+  </si>
+  <si>
+    <t>道术伤害加成</t>
+  </si>
+  <si>
+    <t>增加{0}%道术伤害可叠{1}层</t>
+  </si>
+  <si>
+    <t>增伤强化</t>
+  </si>
+  <si>
+    <t>提高{0}%增伤可叠{1}层</t>
+  </si>
+  <si>
+    <t>增伤弱化</t>
+  </si>
+  <si>
+    <t>降低敌人{0}%增伤</t>
+  </si>
+  <si>
+    <t>减伤强化</t>
+  </si>
+  <si>
+    <t>提高{0}%免伤可叠{1}层</t>
+  </si>
+  <si>
+    <t>减伤弱化</t>
+  </si>
+  <si>
+    <t>降低敌人{0}%免伤</t>
+  </si>
+  <si>
+    <t>暴击增加</t>
+  </si>
+  <si>
+    <t>易伤</t>
+  </si>
+  <si>
+    <t>承担额外百分比伤害</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>吸血{0}%</t>
+  </si>
+  <si>
+    <t>技能伤害-吸血</t>
+  </si>
+  <si>
+    <t>回复</t>
+  </si>
+  <si>
+    <t>道术-回复</t>
+  </si>
+  <si>
+    <t>灼烧</t>
+  </si>
+  <si>
+    <t>灼烧{0}%伤害{2}秒</t>
+  </si>
+  <si>
+    <t>魔法-灼烧</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>道术-中毒</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>技能伤害-流血</t>
+  </si>
+  <si>
+    <t>切割</t>
+  </si>
+  <si>
+    <t>造成{0}%当前生命的绝对伤害</t>
+  </si>
+  <si>
+    <t>绝对切割</t>
+  </si>
+  <si>
+    <t>造成{0}%最大生命的绝对的伤害</t>
+  </si>
+  <si>
+    <t>超级回复</t>
+  </si>
+  <si>
+    <t>回复{0}%最大生命</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>冰冻{2}秒</t>
+  </si>
+  <si>
+    <t>控制-冰冻</t>
+  </si>
+  <si>
+    <t>晕眩</t>
+  </si>
+  <si>
+    <t>晕眩{2}秒</t>
+  </si>
+  <si>
+    <t>控制-晕眩</t>
+  </si>
+  <si>
     <t>免疫控制</t>
   </si>
   <si>
     <t>免疫控制，持续{2}秒</t>
-  </si>
-  <si>
-    <t>召唤伤害加成</t>
-  </si>
-  <si>
-    <t>增加{0}%召唤物伤害可叠{1}层</t>
-  </si>
-  <si>
-    <t>物理伤害加成</t>
-  </si>
-  <si>
-    <t>增加{0}%物理伤害可叠{1}层</t>
-  </si>
-  <si>
-    <t>魔法伤害加成</t>
-  </si>
-  <si>
-    <t>增加{0}%魔法伤害可叠{1}层</t>
-  </si>
-  <si>
-    <t>道术伤害加成</t>
-  </si>
-  <si>
-    <t>增加{0}%道术伤害可叠{1}层</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <t>吸血{0}%</t>
-  </si>
-  <si>
-    <t>技能伤害-吸血</t>
-  </si>
-  <si>
-    <t>回复</t>
-  </si>
-  <si>
-    <t>道术-回复</t>
-  </si>
-  <si>
-    <t>灼烧</t>
-  </si>
-  <si>
-    <t>灼烧{0}%伤害{2}秒</t>
-  </si>
-  <si>
-    <t>魔法-灼烧</t>
-  </si>
-  <si>
-    <t>中毒</t>
-  </si>
-  <si>
-    <t>道术-中毒</t>
-  </si>
-  <si>
-    <t>冰冻</t>
-  </si>
-  <si>
-    <t>冰冻{2}秒</t>
-  </si>
-  <si>
-    <t>控制-冰冻</t>
-  </si>
-  <si>
-    <t>晕眩</t>
-  </si>
-  <si>
-    <t>控制-晕眩</t>
-  </si>
-  <si>
-    <t>流血</t>
-  </si>
-  <si>
-    <t>技能伤害-流血</t>
-  </si>
-  <si>
-    <t>易伤</t>
-  </si>
-  <si>
-    <t>承担额外百分比伤害</t>
-  </si>
-  <si>
-    <t>增伤强化</t>
-  </si>
-  <si>
-    <t>增伤弱化</t>
-  </si>
-  <si>
-    <t>减伤强化</t>
-  </si>
-  <si>
-    <t>减伤弱化</t>
-  </si>
-  <si>
-    <t>暴击增加</t>
   </si>
 </sst>
 </file>
@@ -393,13 +453,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -411,7 +477,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -894,141 +960,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1350,151 +1417,154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:O33"/>
+  <dimension ref="C1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="17.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="14.375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="2" customWidth="1"/>
     <col min="14" max="14" width="29.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="16.25" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="15:15">
+    <row r="1" customHeight="1" spans="7:7">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="15:15">
       <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14">
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="3" customHeight="1" spans="3:14">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:14">
-      <c r="C4" s="3" t="s">
+    <row r="4" customHeight="1" spans="3:14">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:14">
-      <c r="C5" s="3" t="s">
+    <row r="5" customHeight="1" spans="3:14">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:15">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1505,22 +1575,22 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>1002</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>
@@ -1532,7 +1602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:15">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1543,22 +1613,22 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>1003</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>100</v>
       </c>
       <c r="L7" s="1">
         <v>100</v>
@@ -1570,7 +1640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="3:15">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1581,22 +1651,22 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>1004</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100</v>
       </c>
       <c r="L8" s="1">
         <v>100</v>
@@ -1608,7 +1678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:15">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1619,22 +1689,22 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>1005</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
       </c>
       <c r="L9" s="1">
         <v>100</v>
@@ -1646,7 +1716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:15">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1657,22 +1727,22 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>1001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
       </c>
       <c r="L10" s="1">
         <v>100</v>
@@ -1684,7 +1754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:15">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1695,22 +1765,22 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>23</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -1725,47 +1795,48 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:15">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="3:15">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C13" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
@@ -1774,22 +1845,22 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="1">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -1802,9 +1873,9 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:15">
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C14" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>45</v>
@@ -1813,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="1">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1841,9 +1912,9 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:15">
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C15" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>47</v>
@@ -1852,22 +1923,22 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="1">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -1880,9 +1951,9 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:15">
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C16" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
@@ -1891,45 +1962,84 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="1">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="4:15">
-      <c r="D17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="3:15">
-      <c r="C18" s="1">
-        <v>101</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="O16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:15">
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>12</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:15">
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1937,19 +2047,19 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>-6</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
@@ -1957,177 +2067,136 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="N18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:15">
-      <c r="C19" s="1">
-        <v>102</v>
+    <row r="19" customHeight="1" spans="3:15">
+      <c r="C19" s="2">
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
       </c>
       <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>13</v>
       </c>
       <c r="L19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:15">
-      <c r="C20" s="1">
-        <v>103</v>
+    <row r="20" customHeight="1" spans="3:15">
+      <c r="C20" s="2">
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C21" s="1">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>3</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="3:15">
-      <c r="C21" s="1">
-        <v>104</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>401</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4</v>
-      </c>
-      <c r="K21" s="1">
-        <v>100</v>
-      </c>
-      <c r="L21" s="1">
-        <v>100</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2" t="s">
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C23" s="1">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="3:15">
-      <c r="C22" s="1">
-        <v>105</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="3:15">
-      <c r="C23" s="1">
-        <v>106</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -2136,311 +2205,432 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C24" s="1">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="s">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>100</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C25" s="1">
+        <v>103</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="3:15">
-      <c r="C24" s="1">
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C26" s="1">
+        <v>104</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C27" s="1">
         <v>107</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-6</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="3:15">
-      <c r="C25" s="1">
-        <v>108</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C28" s="1">
+        <v>109</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C29" s="1">
+        <v>110</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C30" s="1">
+        <v>111</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="4:15">
+      <c r="D31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C32" s="1">
+        <v>305</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C33" s="1">
+        <v>306</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C35" s="1">
         <v>401</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="4:15">
-      <c r="D26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="4:15">
-      <c r="D27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="4:15">
-      <c r="D28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="3:15">
-      <c r="C29" s="1">
-        <v>1201</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>12</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15">
-      <c r="C30" s="2">
-        <v>1202</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>12</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15">
-      <c r="C31" s="2">
-        <v>1301</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>13</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15">
-      <c r="C32" s="2">
-        <v>1302</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>13</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15">
-      <c r="C33" s="2">
-        <v>801</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>3</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>8</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>74</v>
+      <c r="D35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 N3:N5 D3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 H3:H5 N3:N5 D3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>生命增强</t>
   </si>
   <si>
-    <t>护盾技能-防御生命</t>
+    <t>护盾技能-生命增强</t>
   </si>
   <si>
     <t>生命上限回血增强</t>
@@ -1420,9 +1420,9 @@
   <dimension ref="C1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1730,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>-1</v>
@@ -2401,7 +2401,7 @@
         <v>-1</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>-1</v>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -290,12 +290,18 @@
     <t>防御增强</t>
   </si>
   <si>
+    <t>提高{0}%防御</t>
+  </si>
+  <si>
     <t>护盾技能-防御增强</t>
   </si>
   <si>
     <t>生命增强</t>
   </si>
   <si>
+    <t>提高{0}%生命</t>
+  </si>
+  <si>
     <t>护盾技能-生命增强</t>
   </si>
   <si>
@@ -335,25 +341,25 @@
     <t>增伤强化</t>
   </si>
   <si>
-    <t>提高{0}%增伤可叠{1}层</t>
+    <t>增加{0}%增伤可叠{1}层</t>
   </si>
   <si>
     <t>增伤弱化</t>
   </si>
   <si>
-    <t>降低敌人{0}%增伤</t>
+    <t>减少敌人{0}%增伤</t>
   </si>
   <si>
     <t>减伤强化</t>
   </si>
   <si>
-    <t>提高{0}%免伤可叠{1}层</t>
+    <t>增加{0}%减伤</t>
   </si>
   <si>
     <t>减伤弱化</t>
   </si>
   <si>
-    <t>降低敌人{0}%免伤</t>
+    <t>减少敌人{0}%减伤</t>
   </si>
   <si>
     <t>暴击增加</t>
@@ -1420,9 +1426,9 @@
   <dimension ref="C1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1712,8 +1718,11 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1721,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1730,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H10" s="1">
         <v>-1</v>
@@ -1750,8 +1759,11 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="O10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1759,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1789,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -1800,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1830,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -1839,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1869,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O13" s="2"/>
     </row>
@@ -1878,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1908,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1917,7 +1929,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1947,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -1956,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1986,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:15">
@@ -1997,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2027,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:15">
@@ -2038,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2068,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:15">
@@ -2079,7 +2091,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -2109,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:15">
@@ -2120,7 +2132,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2150,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2158,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2188,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2196,7 +2208,7 @@
         <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -2226,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2237,7 +2249,7 @@
         <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -2267,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2275,7 +2287,7 @@
         <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -2305,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2316,7 +2328,7 @@
         <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -2346,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2354,7 +2366,7 @@
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -2384,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2392,7 +2404,7 @@
         <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -2422,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O28" s="2"/>
     </row>
@@ -2431,7 +2443,7 @@
         <v>110</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -2461,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -2470,7 +2482,7 @@
         <v>111</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -2500,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O30" s="2"/>
     </row>
@@ -2513,7 +2525,7 @@
         <v>305</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -2543,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2554,7 +2566,7 @@
         <v>306</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -2584,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="3:15">
@@ -2595,7 +2607,7 @@
         <v>401</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E35" s="1">
         <v>4</v>
@@ -2625,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -410,13 +410,13 @@
     <t>切割</t>
   </si>
   <si>
-    <t>造成{0}%当前生命的绝对伤害</t>
+    <t>额外造成{0}%当前生命的绝对伤害</t>
   </si>
   <si>
     <t>绝对切割</t>
   </si>
   <si>
-    <t>造成{0}%最大生命的绝对的伤害</t>
+    <t>额外造成{0}%最大生命的绝对伤害</t>
   </si>
   <si>
     <t>超级回复</t>
@@ -1428,7 +1428,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -1428,7 +1428,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1428,7 +1428,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>免疫控制，持续{2}秒</t>
+  </si>
+  <si>
+    <t>必爆</t>
   </si>
 </sst>
 </file>
@@ -1423,12 +1426,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O35"/>
+  <dimension ref="C1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2640,6 +2643,44 @@
         <v>87</v>
       </c>
     </row>
+    <row r="37" customHeight="1" spans="3:14">
+      <c r="C37" s="2">
+        <v>500</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 H3:H5 N3:N5 D3:E5" errorStyle="warning">

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -455,7 +468,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1429,9 +1442,9 @@
   <dimension ref="C1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>承担额外百分比伤害</t>
+  </si>
+  <si>
+    <t>绝对免伤</t>
   </si>
   <si>
     <t>吸血</t>
@@ -1439,12 +1442,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O37"/>
+  <dimension ref="C1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2219,53 +2222,62 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C23" s="1">
-        <v>101</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    <row r="22" customHeight="1" spans="3:13">
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2011</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C24" s="1">
-        <v>102</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -2283,33 +2295,36 @@
         <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>66</v>
+      <c r="N24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C25" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>-1</v>
@@ -2318,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -2327,24 +2342,21 @@
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="O25" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C26" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -2373,16 +2385,19 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
+      <c r="N26" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="O26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C27" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -2412,15 +2427,15 @@
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C28" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -2429,16 +2444,16 @@
         <v>-1</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -2449,17 +2464,16 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C29" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -2468,7 +2482,7 @@
         <v>-1</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>-1</v>
@@ -2489,34 +2503,34 @@
         <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C30" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -2528,61 +2542,59 @@
         <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C31" s="1">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="4:15">
-      <c r="D31" s="2"/>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C32" s="1">
-        <v>305</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="1">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>-2</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>82</v>
-      </c>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="4:15">
+      <c r="D32" s="2"/>
+      <c r="O32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C33" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -2612,86 +2624,127 @@
         <v>0</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C34" s="1">
+        <v>306</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C35" s="1">
+      <c r="O34" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C36" s="1">
         <v>401</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="1">
         <v>4</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
         <v>-2</v>
       </c>
-      <c r="H35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:14">
-      <c r="C37" s="2">
+      <c r="H36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:14">
+      <c r="C38" s="2">
         <v>500</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="2">
         <v>5</v>
       </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>88</v>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>2011</v>
+        <v>37</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -457,6 +457,15 @@
   </si>
   <si>
     <t>控制-晕眩</t>
+  </si>
+  <si>
+    <t>麻痹</t>
+  </si>
+  <si>
+    <t>麻痹{2}秒</t>
+  </si>
+  <si>
+    <t>控制-麻痹</t>
   </si>
   <si>
     <t>免疫控制</t>
@@ -1442,12 +1451,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O38"/>
+  <dimension ref="C1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2671,80 +2680,135 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C36" s="1">
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C35" s="1">
+        <v>307</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C37" s="1">
         <v>401</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="1">
         <v>4</v>
       </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
         <v>-2</v>
       </c>
-      <c r="H36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:14">
-      <c r="C38" s="2">
+      <c r="H37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:14">
+      <c r="C39" s="2">
         <v>500</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="2">
         <v>5</v>
       </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>89</v>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EffectConfig.xlsx
+++ b/Excel/EffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>绝对免伤</t>
+  </si>
+  <si>
+    <t>二次闪避</t>
   </si>
   <si>
     <t>吸血</t>
@@ -659,12 +662,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1451,12 +1454,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O39"/>
+  <dimension ref="C1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2267,67 +2270,63 @@
       </c>
     </row>
     <row r="23" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>39</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C24" s="1">
-        <v>101</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>65</v>
-      </c>
+    <row r="24" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C25" s="1">
-        <v>102</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>101</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -2345,33 +2344,36 @@
         <v>1</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>67</v>
+      <c r="N25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C26" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
         <v>-1</v>
@@ -2380,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -2389,24 +2391,21 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="O26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C27" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -2435,16 +2434,19 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
+      <c r="N27" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C28" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -2474,15 +2476,15 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C29" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -2491,16 +2493,16 @@
         <v>-1</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H29" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -2511,17 +2513,16 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C30" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -2530,7 +2531,7 @@
         <v>-1</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <v>-1</v>
@@ -2551,34 +2552,34 @@
         <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C31" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -2590,61 +2591,59 @@
         <v>0</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C32" s="1">
+        <v>111</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="4:15">
-      <c r="D32" s="2"/>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C33" s="1">
-        <v>305</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>-2</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>2</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>83</v>
-      </c>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="4:15">
+      <c r="D33" s="2"/>
+      <c r="O33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C34" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -2674,18 +2673,18 @@
         <v>0</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C35" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
@@ -2715,105 +2714,146 @@
         <v>0</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C36" s="1">
+        <v>307</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C37" s="1">
+      <c r="O36" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C38" s="1">
         <v>401</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
         <v>-2</v>
       </c>
-      <c r="H37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:14">
-      <c r="C39" s="2">
+      <c r="H38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:14">
+      <c r="C40" s="2">
         <v>500</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2">
         <v>5</v>
       </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>92</v>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5 F3:F5 H3:H5 N3:N5 D3:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="H3:H5 N3:N5 C3:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
